--- a/analgesicduration.xlsx
+++ b/analgesicduration.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/051867489d37b9f6/Research project/Mix Local SRMA/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/051867489d37b9f6/Research project/Mix Local SRMA/mixlocal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{DA216A53-135F-45F1-A115-4B2988D5A5D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F87011D8-DAB4-4DAA-93D6-444F5D1F4C83}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="8_{DA216A53-135F-45F1-A115-4B2988D5A5D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1AC6299F-E58F-47A8-AAAF-075A33FB1994}"/>
   <bookViews>
-    <workbookView xWindow="20232" yWindow="4200" windowWidth="24168" windowHeight="14388" xr2:uid="{65F99F41-FF9A-4AAF-BF74-A1C1EA13794A}"/>
+    <workbookView xWindow="19200" yWindow="3036" windowWidth="24168" windowHeight="14388" xr2:uid="{65F99F41-FF9A-4AAF-BF74-A1C1EA13794A}"/>
   </bookViews>
   <sheets>
     <sheet name="analgeisa duration" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="30">
   <si>
     <t>study</t>
   </si>
@@ -89,9 +89,6 @@
     <t>yes</t>
   </si>
   <si>
-    <t>mix</t>
-  </si>
-  <si>
     <t>Valery</t>
   </si>
   <si>
@@ -108,9 +105,6 @@
   </si>
   <si>
     <t>Bup and rop, mix</t>
-  </si>
-  <si>
-    <t>both</t>
   </si>
   <si>
     <t>Abdelhady</t>
@@ -184,10 +178,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -510,7 +500,7 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:K13"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -652,12 +642,12 @@
         <v>16</v>
       </c>
       <c r="K4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5">
         <v>2013</v>
@@ -681,7 +671,7 @@
         <v>66.7</v>
       </c>
       <c r="I5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J5" t="s">
         <v>13</v>
@@ -692,7 +682,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6">
         <v>2011</v>
@@ -719,7 +709,7 @@
         <v>12</v>
       </c>
       <c r="J6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K6" t="s">
         <v>13</v>
@@ -727,7 +717,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7">
         <v>2009</v>
@@ -751,18 +741,18 @@
         <v>242.56</v>
       </c>
       <c r="I7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J7" t="s">
         <v>13</v>
       </c>
       <c r="K7" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B8">
         <v>2022</v>
@@ -797,7 +787,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B9">
         <v>2013</v>
@@ -832,7 +822,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B10">
         <v>1994</v>
@@ -856,7 +846,7 @@
         <v>100.63</v>
       </c>
       <c r="I10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K10" t="s">
         <v>13</v>
@@ -864,7 +854,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B11">
         <v>2024</v>
@@ -894,12 +884,12 @@
         <v>13</v>
       </c>
       <c r="K11" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B12">
         <v>2011</v>
@@ -929,12 +919,12 @@
         <v>16</v>
       </c>
       <c r="K12" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B13">
         <v>1998</v>

--- a/analgesicduration.xlsx
+++ b/analgesicduration.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/051867489d37b9f6/Research project/Mix Local SRMA/mixlocal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="8_{DA216A53-135F-45F1-A115-4B2988D5A5D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1AC6299F-E58F-47A8-AAAF-075A33FB1994}"/>
+  <xr:revisionPtr revIDLastSave="33" documentId="8_{DA216A53-135F-45F1-A115-4B2988D5A5D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B65A99D3-D5AD-444F-A926-9A1704E03C4B}"/>
   <bookViews>
-    <workbookView xWindow="19200" yWindow="3036" windowWidth="24168" windowHeight="14388" xr2:uid="{65F99F41-FF9A-4AAF-BF74-A1C1EA13794A}"/>
+    <workbookView xWindow="15792" yWindow="3732" windowWidth="24168" windowHeight="14388" xr2:uid="{65F99F41-FF9A-4AAF-BF74-A1C1EA13794A}"/>
   </bookViews>
   <sheets>
     <sheet name="analgeisa duration" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="32">
   <si>
     <t>study</t>
   </si>
@@ -77,9 +77,6 @@
     <t>NA</t>
   </si>
   <si>
-    <t>no</t>
-  </si>
-  <si>
     <t>Zupcic</t>
   </si>
   <si>
@@ -98,9 +95,6 @@
     <t>Gadsden</t>
   </si>
   <si>
-    <t>np</t>
-  </si>
-  <si>
     <t>Cuvillon</t>
   </si>
   <si>
@@ -125,7 +119,19 @@
     <t>Kim</t>
   </si>
   <si>
-    <t>Buoaziz</t>
+    <t>Bouaziz</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Lower</t>
+  </si>
+  <si>
+    <t>Same</t>
   </si>
 </sst>
 </file>
@@ -178,6 +184,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -497,464 +507,515 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E63A004F-AF69-43C2-9173-149B8986D9EB}">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" t="str">
+        <f>B2 &amp; " " &amp; C2</f>
+        <v>Sripriya 2023</v>
+      </c>
+      <c r="B2" t="s">
         <v>11</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>2023</v>
-      </c>
-      <c r="C2">
-        <v>21</v>
       </c>
       <c r="D2">
         <v>21</v>
       </c>
       <c r="E2">
+        <v>21</v>
+      </c>
+      <c r="F2">
         <v>732</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>498</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>111.2</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>177.9</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>12</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" t="str">
+        <f t="shared" ref="A3:A13" si="0">B3 &amp; " " &amp; C3</f>
+        <v>Zupcic 2017</v>
+      </c>
+      <c r="B3" t="s">
         <v>13</v>
       </c>
-      <c r="K2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3">
+      <c r="C3">
         <v>2017</v>
-      </c>
-      <c r="C3">
-        <v>40</v>
       </c>
       <c r="D3">
         <v>40</v>
       </c>
       <c r="E3">
+        <v>40</v>
+      </c>
+      <c r="F3">
         <v>490</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>385</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>15.3</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>28.1</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>12</v>
       </c>
-      <c r="J3" t="s">
-        <v>13</v>
-      </c>
       <c r="K3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4">
+        <v>30</v>
+      </c>
+      <c r="L3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" t="str">
+        <f t="shared" si="0"/>
+        <v>Rohan 2014</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4">
         <v>2014</v>
-      </c>
-      <c r="C4">
-        <v>25</v>
       </c>
       <c r="D4">
         <v>25</v>
       </c>
       <c r="E4">
+        <v>25</v>
+      </c>
+      <c r="F4">
         <v>297.04000000000002</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>298.04000000000002</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>24.8</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>27.06</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>12</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" t="str">
+        <f t="shared" si="0"/>
+        <v>Valery 2013</v>
+      </c>
+      <c r="B5" t="s">
         <v>16</v>
       </c>
-      <c r="K4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5">
+      <c r="C5">
         <v>2013</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>40</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>20</v>
-      </c>
-      <c r="E5">
-        <v>480</v>
       </c>
       <c r="F5">
         <v>480</v>
       </c>
       <c r="G5">
+        <v>480</v>
+      </c>
+      <c r="H5">
         <v>49.07</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>66.7</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" t="str">
+        <f t="shared" si="0"/>
+        <v>Gadsden 2011</v>
+      </c>
+      <c r="B6" t="s">
         <v>18</v>
       </c>
-      <c r="J5" t="s">
-        <v>13</v>
-      </c>
-      <c r="K5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6">
+      <c r="C6">
         <v>2011</v>
-      </c>
-      <c r="C6">
-        <v>21</v>
       </c>
       <c r="D6">
         <v>21</v>
       </c>
       <c r="E6">
+        <v>21</v>
+      </c>
+      <c r="F6">
         <v>840</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>618</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>372</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>294</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>12</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
+        <v>30</v>
+      </c>
+      <c r="L6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" t="str">
+        <f t="shared" si="0"/>
+        <v>Cuvillon 2009</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7">
+        <v>2009</v>
+      </c>
+      <c r="D7">
+        <v>40</v>
+      </c>
+      <c r="E7">
+        <v>42</v>
+      </c>
+      <c r="F7">
+        <v>780</v>
+      </c>
+      <c r="G7">
+        <v>660</v>
+      </c>
+      <c r="H7">
+        <v>364.08</v>
+      </c>
+      <c r="I7">
+        <v>242.56</v>
+      </c>
+      <c r="J7" t="s">
         <v>20</v>
       </c>
-      <c r="K6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="K7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" t="str">
+        <f t="shared" si="0"/>
+        <v>Abdelhady 2022</v>
+      </c>
+      <c r="B8" t="s">
         <v>21</v>
       </c>
-      <c r="B7">
-        <v>2009</v>
-      </c>
-      <c r="C7">
-        <v>40</v>
-      </c>
-      <c r="D7">
-        <v>42</v>
-      </c>
-      <c r="E7">
-        <v>780</v>
-      </c>
-      <c r="F7">
-        <v>660</v>
-      </c>
-      <c r="G7">
-        <v>364.08</v>
-      </c>
-      <c r="H7">
-        <v>242.56</v>
-      </c>
-      <c r="I7" t="s">
-        <v>22</v>
-      </c>
-      <c r="J7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8">
+      <c r="C8">
         <v>2022</v>
-      </c>
-      <c r="C8">
-        <v>22</v>
       </c>
       <c r="D8">
         <v>22</v>
       </c>
       <c r="E8">
+        <v>22</v>
+      </c>
+      <c r="F8">
         <v>608.67999999999995</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>439.02</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>21.74</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>18.27</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>12</v>
       </c>
-      <c r="J8" t="s">
-        <v>13</v>
-      </c>
       <c r="K8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="L8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" t="str">
+        <f t="shared" si="0"/>
+        <v>Ozmen 2013</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9">
+        <v>2013</v>
+      </c>
+      <c r="D9">
+        <v>39</v>
+      </c>
+      <c r="E9">
+        <v>38</v>
+      </c>
+      <c r="F9">
+        <v>264</v>
+      </c>
+      <c r="G9">
+        <v>366</v>
+      </c>
+      <c r="H9">
+        <v>72.599999999999994</v>
+      </c>
+      <c r="I9">
+        <v>132.6</v>
+      </c>
+      <c r="J9" t="s">
+        <v>12</v>
+      </c>
+      <c r="K9" t="s">
+        <v>30</v>
+      </c>
+      <c r="L9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" t="str">
+        <f t="shared" si="0"/>
+        <v>Keckeis 1994</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10">
+        <v>1994</v>
+      </c>
+      <c r="D10">
+        <v>16</v>
+      </c>
+      <c r="E10">
+        <v>42</v>
+      </c>
+      <c r="F10">
+        <v>714</v>
+      </c>
+      <c r="G10">
+        <v>466</v>
+      </c>
+      <c r="H10">
+        <v>168</v>
+      </c>
+      <c r="I10">
+        <v>100.63</v>
+      </c>
+      <c r="J10" t="s">
         <v>24</v>
       </c>
-      <c r="B9">
-        <v>2013</v>
-      </c>
-      <c r="C9">
-        <v>39</v>
-      </c>
-      <c r="D9">
-        <v>38</v>
-      </c>
-      <c r="E9">
-        <v>264</v>
-      </c>
-      <c r="F9">
-        <v>366</v>
-      </c>
-      <c r="G9">
-        <v>72.599999999999994</v>
-      </c>
-      <c r="H9">
-        <v>132.6</v>
-      </c>
-      <c r="I9" t="s">
-        <v>12</v>
-      </c>
-      <c r="J9" t="s">
-        <v>13</v>
-      </c>
-      <c r="K9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="L10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" t="str">
+        <f t="shared" si="0"/>
+        <v>Aguilera 2024</v>
+      </c>
+      <c r="B11" t="s">
         <v>25</v>
       </c>
-      <c r="B10">
-        <v>1994</v>
-      </c>
-      <c r="C10">
-        <v>16</v>
-      </c>
-      <c r="D10">
-        <v>42</v>
-      </c>
-      <c r="E10">
-        <v>714</v>
-      </c>
-      <c r="F10">
-        <v>466</v>
-      </c>
-      <c r="G10">
-        <v>168</v>
-      </c>
-      <c r="H10">
-        <v>100.63</v>
-      </c>
-      <c r="I10" t="s">
-        <v>26</v>
-      </c>
-      <c r="K10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11">
+      <c r="C11">
         <v>2024</v>
-      </c>
-      <c r="C11">
-        <v>20</v>
       </c>
       <c r="D11">
         <v>20</v>
       </c>
       <c r="E11">
+        <v>20</v>
+      </c>
+      <c r="F11">
         <v>2298</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>1545</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>444</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>396</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>12</v>
       </c>
-      <c r="J11" t="s">
-        <v>13</v>
-      </c>
       <c r="K11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12">
+        <v>30</v>
+      </c>
+      <c r="L11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" t="str">
+        <f t="shared" si="0"/>
+        <v>Kim 2011</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12">
         <v>2011</v>
-      </c>
-      <c r="C12">
-        <v>30</v>
       </c>
       <c r="D12">
         <v>30</v>
       </c>
       <c r="E12">
+        <v>30</v>
+      </c>
+      <c r="F12">
         <v>718</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>556</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>188.2</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>179.3</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>12</v>
       </c>
-      <c r="J12" t="s">
-        <v>16</v>
-      </c>
       <c r="K12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+        <v>31</v>
+      </c>
+      <c r="L12" t="s">
         <v>29</v>
       </c>
-      <c r="B13">
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" t="str">
+        <f t="shared" si="0"/>
+        <v>Bouaziz 1998</v>
+      </c>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13">
         <v>1998</v>
-      </c>
-      <c r="C13">
-        <v>17</v>
       </c>
       <c r="D13">
         <v>17</v>
       </c>
       <c r="E13">
+        <v>17</v>
+      </c>
+      <c r="F13">
         <v>706</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>707</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>291</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>274</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>12</v>
       </c>
-      <c r="J13" t="s">
-        <v>13</v>
-      </c>
       <c r="K13" t="s">
-        <v>13</v>
+        <v>30</v>
+      </c>
+      <c r="L13" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
